--- a/data/pca/factorExposure/factorExposure_2012-07-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-07-19.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01818024474539506</v>
+        <v>-0.02297413516521206</v>
       </c>
       <c r="C2">
-        <v>0.02758479256022279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02411586137862727</v>
+      </c>
+      <c r="D2">
+        <v>-0.004709129921900098</v>
+      </c>
+      <c r="E2">
+        <v>0.01811580801537254</v>
+      </c>
+      <c r="F2">
+        <v>0.005072227643315166</v>
+      </c>
+      <c r="G2">
+        <v>-0.01580468820957101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +757,45 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06903340541185768</v>
+        <v>-0.07531417414406226</v>
       </c>
       <c r="C4">
-        <v>0.05783219126115138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.03882113909289887</v>
+      </c>
+      <c r="D4">
+        <v>-0.07080815040112967</v>
+      </c>
+      <c r="E4">
+        <v>-0.002151607207868307</v>
+      </c>
+      <c r="F4">
+        <v>0.01805064269018118</v>
+      </c>
+      <c r="G4">
+        <v>0.02618975461476977</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +803,275 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.096599984991736</v>
+        <v>-0.1123325213279285</v>
       </c>
       <c r="C6">
-        <v>0.06357279569514158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.04300534924715278</v>
+      </c>
+      <c r="D6">
+        <v>-0.01624358175701702</v>
+      </c>
+      <c r="E6">
+        <v>-0.004154156075858506</v>
+      </c>
+      <c r="F6">
+        <v>0.04400951248918709</v>
+      </c>
+      <c r="G6">
+        <v>-0.01053381215098307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.04499390642810326</v>
+        <v>-0.05402359555930287</v>
       </c>
       <c r="C7">
-        <v>0.03299738203690192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.0244536528488089</v>
+      </c>
+      <c r="D7">
+        <v>-0.03429687685262472</v>
+      </c>
+      <c r="E7">
+        <v>0.02481939059121516</v>
+      </c>
+      <c r="F7">
+        <v>0.02703884485195993</v>
+      </c>
+      <c r="G7">
+        <v>0.0376632122967301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.03233772351796965</v>
+        <v>-0.03333838083534867</v>
       </c>
       <c r="C8">
-        <v>0.02578177770370595</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.01652456594182784</v>
+      </c>
+      <c r="D8">
+        <v>-0.03925218103791644</v>
+      </c>
+      <c r="E8">
+        <v>0.01234504154520022</v>
+      </c>
+      <c r="F8">
+        <v>0.0481692423866878</v>
+      </c>
+      <c r="G8">
+        <v>-0.02507315772067561</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06130982574071413</v>
+        <v>-0.06888077446597754</v>
       </c>
       <c r="C9">
-        <v>0.0443726659920823</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.02837831306221262</v>
+      </c>
+      <c r="D9">
+        <v>-0.07173021544443323</v>
+      </c>
+      <c r="E9">
+        <v>0.01798778652173733</v>
+      </c>
+      <c r="F9">
+        <v>0.0332267189509027</v>
+      </c>
+      <c r="G9">
+        <v>0.006580924479518503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.03021880151905108</v>
+        <v>-0.04052683286563053</v>
       </c>
       <c r="C10">
-        <v>0.03662898971369569</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.03729386202552037</v>
+      </c>
+      <c r="D10">
+        <v>0.1843218309152142</v>
+      </c>
+      <c r="E10">
+        <v>0.04840128020651346</v>
+      </c>
+      <c r="F10">
+        <v>0.03093884708689885</v>
+      </c>
+      <c r="G10">
+        <v>0.01855427639372225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.07000595042489009</v>
+        <v>-0.07601048926819341</v>
       </c>
       <c r="C11">
-        <v>0.05205590051375762</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.03078768003984673</v>
+      </c>
+      <c r="D11">
+        <v>-0.06755370040009247</v>
+      </c>
+      <c r="E11">
+        <v>-0.004484603881987397</v>
+      </c>
+      <c r="F11">
+        <v>0.03612860984133824</v>
+      </c>
+      <c r="G11">
+        <v>0.03927176960115944</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.05285088944362312</v>
+        <v>-0.06053136804149797</v>
       </c>
       <c r="C12">
-        <v>0.0504520178988808</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.0345639791463741</v>
+      </c>
+      <c r="D12">
+        <v>-0.05010278962194845</v>
+      </c>
+      <c r="E12">
+        <v>0.0124864259634004</v>
+      </c>
+      <c r="F12">
+        <v>0.02655528747962919</v>
+      </c>
+      <c r="G12">
+        <v>0.03261846089362752</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.06068441509643034</v>
+        <v>-0.06433884957299213</v>
       </c>
       <c r="C13">
-        <v>0.05175469425502754</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.03049781800063046</v>
+      </c>
+      <c r="D13">
+        <v>-0.0568557792307136</v>
+      </c>
+      <c r="E13">
+        <v>0.004381858025886565</v>
+      </c>
+      <c r="F13">
+        <v>0.01551818458514373</v>
+      </c>
+      <c r="G13">
+        <v>0.01520243815855713</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.03367998265151791</v>
+        <v>-0.03836897471190687</v>
       </c>
       <c r="C14">
-        <v>0.02873453620011613</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.02194724977791842</v>
+      </c>
+      <c r="D14">
+        <v>-0.01117825324148086</v>
+      </c>
+      <c r="E14">
+        <v>0.02197776788853802</v>
+      </c>
+      <c r="F14">
+        <v>0.01870355731829116</v>
+      </c>
+      <c r="G14">
+        <v>-0.01189398053595868</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.04029023310405063</v>
+        <v>-0.04044350057426571</v>
       </c>
       <c r="C15">
-        <v>0.01476968084246429</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.005362404740040195</v>
+      </c>
+      <c r="D15">
+        <v>-0.01942259032331435</v>
+      </c>
+      <c r="E15">
+        <v>0.04244049928790785</v>
+      </c>
+      <c r="F15">
+        <v>-0.003592442177151085</v>
+      </c>
+      <c r="G15">
+        <v>-0.02210301694312257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05785706373080621</v>
+        <v>-0.06173276640587935</v>
       </c>
       <c r="C16">
-        <v>0.04350185643129218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02695883207456529</v>
+      </c>
+      <c r="D16">
+        <v>-0.05916140516314288</v>
+      </c>
+      <c r="E16">
+        <v>0.0009675989043651005</v>
+      </c>
+      <c r="F16">
+        <v>0.02909731270524725</v>
+      </c>
+      <c r="G16">
+        <v>0.02371362242740645</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1079,22 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1102,22 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.0625579818217044</v>
+        <v>-0.0615013176444191</v>
       </c>
       <c r="C20">
-        <v>0.03576828842629559</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.01742171112560699</v>
+      </c>
+      <c r="D20">
+        <v>-0.04944446447049278</v>
+      </c>
+      <c r="E20">
+        <v>0.02176629770300396</v>
+      </c>
+      <c r="F20">
+        <v>0.02532663161913318</v>
+      </c>
+      <c r="G20">
+        <v>0.02407321829797207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.02651662583479939</v>
+        <v>-0.02351647051783004</v>
       </c>
       <c r="C21">
-        <v>0.0001261225156608796</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.01041082914263094</v>
+      </c>
+      <c r="D21">
+        <v>-0.03778244320975584</v>
+      </c>
+      <c r="E21">
+        <v>0.08992649112682539</v>
+      </c>
+      <c r="F21">
+        <v>-0.01076451067578233</v>
+      </c>
+      <c r="G21">
+        <v>-0.01576716307004391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.06935013127394864</v>
+        <v>-0.07018244901304004</v>
       </c>
       <c r="C22">
-        <v>0.07432890271583591</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.04577013537209756</v>
+      </c>
+      <c r="D22">
+        <v>-0.1084816739057413</v>
+      </c>
+      <c r="E22">
+        <v>0.6001346069322863</v>
+      </c>
+      <c r="F22">
+        <v>-0.1633063284891683</v>
+      </c>
+      <c r="G22">
+        <v>-0.05186851358512233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.07009746763824985</v>
+        <v>-0.0708883433318281</v>
       </c>
       <c r="C23">
-        <v>0.07384781628580164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.04520659374161767</v>
+      </c>
+      <c r="D23">
+        <v>-0.1096220809699476</v>
+      </c>
+      <c r="E23">
+        <v>0.5993011156461274</v>
+      </c>
+      <c r="F23">
+        <v>-0.1629923778332412</v>
+      </c>
+      <c r="G23">
+        <v>-0.05338230130909075</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06410379897570589</v>
+        <v>-0.07243906392821696</v>
       </c>
       <c r="C24">
-        <v>0.05011771081634867</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.0316412707816983</v>
+      </c>
+      <c r="D24">
+        <v>-0.06627736695833369</v>
+      </c>
+      <c r="E24">
+        <v>0.01041666317410814</v>
+      </c>
+      <c r="F24">
+        <v>0.04313469909819191</v>
+      </c>
+      <c r="G24">
+        <v>0.01654630187275501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.0652572452901327</v>
+        <v>-0.07134899889383139</v>
       </c>
       <c r="C25">
-        <v>0.05662249525803954</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03765568759724163</v>
+      </c>
+      <c r="D25">
+        <v>-0.06416841949381158</v>
+      </c>
+      <c r="E25">
+        <v>0.01012083751389355</v>
+      </c>
+      <c r="F25">
+        <v>0.03934491022510262</v>
+      </c>
+      <c r="G25">
+        <v>0.01543019558300149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.03856096186600759</v>
+        <v>-0.03996665868657421</v>
       </c>
       <c r="C26">
-        <v>0.01272056051672054</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.004949566481796102</v>
+      </c>
+      <c r="D26">
+        <v>-0.01947022997063681</v>
+      </c>
+      <c r="E26">
+        <v>0.03725583066278115</v>
+      </c>
+      <c r="F26">
+        <v>0.01531943460781374</v>
+      </c>
+      <c r="G26">
+        <v>0.01721362769029106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1309,229 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.05714920366559642</v>
+        <v>-0.07694154380019662</v>
       </c>
       <c r="C28">
-        <v>0.07707830310112403</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.07628662250401429</v>
+      </c>
+      <c r="D28">
+        <v>0.3229958544142889</v>
+      </c>
+      <c r="E28">
+        <v>0.04899726803826873</v>
+      </c>
+      <c r="F28">
+        <v>0.05415795746994618</v>
+      </c>
+      <c r="G28">
+        <v>-0.02909397741912938</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.03685954637011145</v>
+        <v>-0.04211252740618861</v>
       </c>
       <c r="C29">
-        <v>0.0315271843840911</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.02433245631132821</v>
+      </c>
+      <c r="D29">
+        <v>-0.009788116661397723</v>
+      </c>
+      <c r="E29">
+        <v>0.0460959915689147</v>
+      </c>
+      <c r="F29">
+        <v>0.01065612162343307</v>
+      </c>
+      <c r="G29">
+        <v>0.003013508870345398</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.1149396244045052</v>
+        <v>-0.1279754941116144</v>
       </c>
       <c r="C30">
-        <v>0.09488424909229329</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.06349499393626788</v>
+      </c>
+      <c r="D30">
+        <v>-0.1063055125792606</v>
+      </c>
+      <c r="E30">
+        <v>0.04457920736527522</v>
+      </c>
+      <c r="F30">
+        <v>0.005224437516984388</v>
+      </c>
+      <c r="G30">
+        <v>0.003156872506669836</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.03751107722736588</v>
+        <v>-0.04267419983886139</v>
       </c>
       <c r="C31">
-        <v>0.02394520694972998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.0151032157330461</v>
+      </c>
+      <c r="D31">
+        <v>-0.03017674969183605</v>
+      </c>
+      <c r="E31">
+        <v>0.02036591841625503</v>
+      </c>
+      <c r="F31">
+        <v>0.01647818008671026</v>
+      </c>
+      <c r="G31">
+        <v>0.01861480423708011</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.03224186337468251</v>
+        <v>-0.03352384479679978</v>
       </c>
       <c r="C32">
-        <v>0.02740149435598461</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01719969923548327</v>
+      </c>
+      <c r="D32">
+        <v>-0.01417381441501227</v>
+      </c>
+      <c r="E32">
+        <v>0.06301074672781644</v>
+      </c>
+      <c r="F32">
+        <v>-0.01487247446573967</v>
+      </c>
+      <c r="G32">
+        <v>-0.008160550238874629</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07616990828367186</v>
+        <v>-0.08700153635837585</v>
       </c>
       <c r="C33">
-        <v>0.04981728993133444</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.03190261286289803</v>
+      </c>
+      <c r="D33">
+        <v>-0.06246704897165922</v>
+      </c>
+      <c r="E33">
+        <v>0.01598617494970057</v>
+      </c>
+      <c r="F33">
+        <v>0.002332361585967032</v>
+      </c>
+      <c r="G33">
+        <v>0.02733018726680619</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05125233119558293</v>
+        <v>-0.05653884498144959</v>
       </c>
       <c r="C34">
-        <v>0.03212341150045067</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01831393195080865</v>
+      </c>
+      <c r="D34">
+        <v>-0.05729457080457333</v>
+      </c>
+      <c r="E34">
+        <v>0.005763500112490443</v>
+      </c>
+      <c r="F34">
+        <v>0.02843432766552188</v>
+      </c>
+      <c r="G34">
+        <v>0.01518837484947443</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.03814548633583945</v>
+        <v>-0.04003842329783767</v>
       </c>
       <c r="C35">
-        <v>0.01363006863184912</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.006173749627766313</v>
+      </c>
+      <c r="D35">
+        <v>-0.01139149697112198</v>
+      </c>
+      <c r="E35">
+        <v>0.03100826327937253</v>
+      </c>
+      <c r="F35">
+        <v>-0.006379894769412041</v>
+      </c>
+      <c r="G35">
+        <v>0.01148430919475095</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.0188435118984654</v>
+        <v>-0.02264194143442355</v>
       </c>
       <c r="C36">
-        <v>0.01426363983841753</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.009306971496592827</v>
+      </c>
+      <c r="D36">
+        <v>-0.01859148226896273</v>
+      </c>
+      <c r="E36">
+        <v>0.03645159093848552</v>
+      </c>
+      <c r="F36">
+        <v>0.01436092986100169</v>
+      </c>
+      <c r="G36">
+        <v>0.01749474612884443</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1539,114 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03759594620001583</v>
+        <v>-0.03998277842958673</v>
       </c>
       <c r="C38">
-        <v>0.01246312292790351</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.00323320122161357</v>
+      </c>
+      <c r="D38">
+        <v>-0.01120894553728516</v>
+      </c>
+      <c r="E38">
+        <v>0.06097390322666263</v>
+      </c>
+      <c r="F38">
+        <v>-0.02643627763881269</v>
+      </c>
+      <c r="G38">
+        <v>-0.02774442689998566</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08789246681039728</v>
+        <v>-0.09943185495344134</v>
       </c>
       <c r="C39">
-        <v>0.07901396650389013</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.05299514612971271</v>
+      </c>
+      <c r="D39">
+        <v>-0.08570101241952958</v>
+      </c>
+      <c r="E39">
+        <v>-0.01481297364442289</v>
+      </c>
+      <c r="F39">
+        <v>0.02269210318325397</v>
+      </c>
+      <c r="G39">
+        <v>-0.004131245523769138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.06822855130747811</v>
+        <v>-0.07519139040362727</v>
       </c>
       <c r="C40">
-        <v>0.05784633914335212</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.04009362121946942</v>
+      </c>
+      <c r="D40">
+        <v>-0.006993228483146407</v>
+      </c>
+      <c r="E40">
+        <v>0.03431142041896906</v>
+      </c>
+      <c r="F40">
+        <v>-0.04007910678243434</v>
+      </c>
+      <c r="G40">
+        <v>-0.04569692598271188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.03868845078423924</v>
+        <v>-0.04206330393288309</v>
       </c>
       <c r="C41">
-        <v>0.01547021353898404</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.0075040232221957</v>
+      </c>
+      <c r="D41">
+        <v>-0.04179866573084594</v>
+      </c>
+      <c r="E41">
+        <v>0.008790530237127689</v>
+      </c>
+      <c r="F41">
+        <v>-0.01215470615431994</v>
+      </c>
+      <c r="G41">
+        <v>-0.004007492519286475</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1654,68 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04088945966863438</v>
+        <v>-0.04890944744601757</v>
       </c>
       <c r="C43">
-        <v>0.03616619445437387</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.02297743664616223</v>
+      </c>
+      <c r="D43">
+        <v>-0.02839887994030932</v>
+      </c>
+      <c r="E43">
+        <v>0.01965227348120949</v>
+      </c>
+      <c r="F43">
+        <v>0.008941504247346089</v>
+      </c>
+      <c r="G43">
+        <v>0.01502656969667581</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.08889481598793189</v>
+        <v>-0.08985709055342063</v>
       </c>
       <c r="C44">
-        <v>0.0910715519647758</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06020687813727726</v>
+      </c>
+      <c r="D44">
+        <v>-0.06606188537832955</v>
+      </c>
+      <c r="E44">
+        <v>0.09125658421590269</v>
+      </c>
+      <c r="F44">
+        <v>0.05200162736947232</v>
+      </c>
+      <c r="G44">
+        <v>-0.0003652343623494586</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1723,160 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02836593547550888</v>
+        <v>-0.02846746911643689</v>
       </c>
       <c r="C46">
-        <v>0.01892821012367941</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.01172235218095995</v>
+      </c>
+      <c r="D46">
+        <v>-0.03350039885324475</v>
+      </c>
+      <c r="E46">
+        <v>0.02402559082309632</v>
+      </c>
+      <c r="F46">
+        <v>0.02113016678119664</v>
+      </c>
+      <c r="G46">
+        <v>-0.009645867320056449</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.03018693845072981</v>
+        <v>-0.03263186060095415</v>
       </c>
       <c r="C47">
-        <v>0.02100127642060104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.0134991492369441</v>
+      </c>
+      <c r="D47">
+        <v>-0.01834682855775612</v>
+      </c>
+      <c r="E47">
+        <v>0.04903012348323757</v>
+      </c>
+      <c r="F47">
+        <v>0.01372539459335282</v>
+      </c>
+      <c r="G47">
+        <v>0.02683431347434749</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.02750963835603984</v>
+        <v>-0.03152398284767297</v>
       </c>
       <c r="C48">
-        <v>0.0168847812728613</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.0105455812996716</v>
+      </c>
+      <c r="D48">
+        <v>-0.02790246973696791</v>
+      </c>
+      <c r="E48">
+        <v>0.04379948531483464</v>
+      </c>
+      <c r="F48">
+        <v>0.01397561441235707</v>
+      </c>
+      <c r="G48">
+        <v>0.007276000984310651</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1563526388460937</v>
+        <v>-0.1771966798260456</v>
       </c>
       <c r="C49">
-        <v>0.09410164641349777</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.05900792790379828</v>
+      </c>
+      <c r="D49">
+        <v>-0.009205443120161466</v>
+      </c>
+      <c r="E49">
+        <v>-0.1160132712356239</v>
+      </c>
+      <c r="F49">
+        <v>0.01084743746838185</v>
+      </c>
+      <c r="G49">
+        <v>0.0769247401234463</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.0320921692656353</v>
+        <v>-0.03932350479590876</v>
       </c>
       <c r="C50">
-        <v>0.02552981726731517</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.02087026313117965</v>
+      </c>
+      <c r="D50">
+        <v>-0.04012707726917397</v>
+      </c>
+      <c r="E50">
+        <v>0.04572582626459317</v>
+      </c>
+      <c r="F50">
+        <v>0.02902351823689449</v>
+      </c>
+      <c r="G50">
+        <v>0.01485645612596615</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.02519110880939113</v>
+        <v>-0.0263197652357879</v>
       </c>
       <c r="C51">
-        <v>0.01911072521639131</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.01191453011047242</v>
+      </c>
+      <c r="D51">
+        <v>-0.02566669290271177</v>
+      </c>
+      <c r="E51">
+        <v>0.01235759912932629</v>
+      </c>
+      <c r="F51">
+        <v>0.008505043465173215</v>
+      </c>
+      <c r="G51">
+        <v>-0.00754933769599824</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1884,114 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1427280078636002</v>
+        <v>-0.1600627907303908</v>
       </c>
       <c r="C53">
-        <v>0.1013177219599372</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.06852823256741145</v>
+      </c>
+      <c r="D53">
+        <v>-0.02435956203001718</v>
+      </c>
+      <c r="E53">
+        <v>-0.03219764726740325</v>
+      </c>
+      <c r="F53">
+        <v>0.030799957589295</v>
+      </c>
+      <c r="G53">
+        <v>0.02558090592445566</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.05204430095953956</v>
+        <v>-0.05604798672112408</v>
       </c>
       <c r="C54">
-        <v>0.02464023263234511</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.0116678109463967</v>
+      </c>
+      <c r="D54">
+        <v>-0.03700906820114522</v>
+      </c>
+      <c r="E54">
+        <v>0.04359174243484526</v>
+      </c>
+      <c r="F54">
+        <v>0.01204545611518643</v>
+      </c>
+      <c r="G54">
+        <v>0.007733945444369453</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.09418196430121008</v>
+        <v>-0.1005086263290665</v>
       </c>
       <c r="C55">
-        <v>0.06318254639545577</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.04249234508475961</v>
+      </c>
+      <c r="D55">
+        <v>-0.03330298865189189</v>
+      </c>
+      <c r="E55">
+        <v>0.007868462152716832</v>
+      </c>
+      <c r="F55">
+        <v>0.03137876331111867</v>
+      </c>
+      <c r="G55">
+        <v>0.007448319071129025</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1378934638500347</v>
+        <v>-0.1589514314285413</v>
       </c>
       <c r="C56">
-        <v>0.1102272548975785</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.07693805403279176</v>
+      </c>
+      <c r="D56">
+        <v>-0.01898608277803635</v>
+      </c>
+      <c r="E56">
+        <v>-0.03623599295681128</v>
+      </c>
+      <c r="F56">
+        <v>0.07080847601334515</v>
+      </c>
+      <c r="G56">
+        <v>0.0378259962835096</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1999,896 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.1164903705788388</v>
+        <v>-0.1079680155673338</v>
       </c>
       <c r="C58">
-        <v>0.03153019234413182</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.0006598108575749983</v>
+      </c>
+      <c r="D58">
+        <v>-0.05268592066899517</v>
+      </c>
+      <c r="E58">
+        <v>0.1801021967169714</v>
+      </c>
+      <c r="F58">
+        <v>0.05234028581046083</v>
+      </c>
+      <c r="G58">
+        <v>0.03529923064640159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1096039316700312</v>
+        <v>-0.1475400692769956</v>
       </c>
       <c r="C59">
-        <v>0.08691562059914038</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.08343324003550218</v>
+      </c>
+      <c r="D59">
+        <v>0.3482204035556978</v>
+      </c>
+      <c r="E59">
+        <v>0.04621359338170385</v>
+      </c>
+      <c r="F59">
+        <v>-0.01963760406356239</v>
+      </c>
+      <c r="G59">
+        <v>0.003515275597841132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.1835955284912141</v>
+        <v>-0.2123907507534485</v>
       </c>
       <c r="C60">
-        <v>0.1151452971248146</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.07754237984374043</v>
+      </c>
+      <c r="D60">
+        <v>-0.01760900476272014</v>
+      </c>
+      <c r="E60">
+        <v>-0.0781057551153599</v>
+      </c>
+      <c r="F60">
+        <v>0.03639379344342498</v>
+      </c>
+      <c r="G60">
+        <v>-0.03000519818404138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.07697315531331168</v>
+        <v>-0.08393148343540607</v>
       </c>
       <c r="C61">
-        <v>0.05847106397693085</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.03822704406849027</v>
+      </c>
+      <c r="D61">
+        <v>-0.0615088888852801</v>
+      </c>
+      <c r="E61">
+        <v>-0.01143463938650908</v>
+      </c>
+      <c r="F61">
+        <v>0.007335892266795501</v>
+      </c>
+      <c r="G61">
+        <v>0.0342941312561594</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1184417661602679</v>
+        <v>-0.1386103821435886</v>
       </c>
       <c r="C62">
-        <v>0.08227866751430866</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.0579916183544862</v>
+      </c>
+      <c r="D62">
+        <v>-0.02967590086030213</v>
+      </c>
+      <c r="E62">
+        <v>-0.04952002043467871</v>
+      </c>
+      <c r="F62">
+        <v>0.03370330994433324</v>
+      </c>
+      <c r="G62">
+        <v>-0.01137348729613066</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.04809100194615328</v>
+        <v>-0.05120731095164739</v>
       </c>
       <c r="C63">
-        <v>0.02822287974863371</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01681590429471139</v>
+      </c>
+      <c r="D63">
+        <v>-0.03091047678233116</v>
+      </c>
+      <c r="E63">
+        <v>0.04744489885896929</v>
+      </c>
+      <c r="F63">
+        <v>0.01526525897733441</v>
+      </c>
+      <c r="G63">
+        <v>-0.02384118304297667</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.106029084291421</v>
+        <v>-0.1101626486175116</v>
       </c>
       <c r="C64">
-        <v>0.04470790168218425</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.02219551806083469</v>
+      </c>
+      <c r="D64">
+        <v>-0.04917415928309605</v>
+      </c>
+      <c r="E64">
+        <v>0.0342735495649884</v>
+      </c>
+      <c r="F64">
+        <v>0.05102396069084779</v>
+      </c>
+      <c r="G64">
+        <v>-0.01384807004434066</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1076487539053997</v>
+        <v>-0.1209887624808876</v>
       </c>
       <c r="C65">
-        <v>0.06283850327373972</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04164373252483516</v>
+      </c>
+      <c r="D65">
+        <v>-0.01828595780775227</v>
+      </c>
+      <c r="E65">
+        <v>-0.005940256882363038</v>
+      </c>
+      <c r="F65">
+        <v>0.06504518086025014</v>
+      </c>
+      <c r="G65">
+        <v>-0.03544066163298451</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.13566602332226</v>
+        <v>-0.152097970224025</v>
       </c>
       <c r="C66">
-        <v>0.08938221122995278</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.0559036352146692</v>
+      </c>
+      <c r="D66">
+        <v>-0.1202251774978277</v>
+      </c>
+      <c r="E66">
+        <v>-0.04954103691189642</v>
+      </c>
+      <c r="F66">
+        <v>0.04443389105324728</v>
+      </c>
+      <c r="G66">
+        <v>0.02272318443728331</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.06941484008456004</v>
+        <v>-0.07368812273939657</v>
       </c>
       <c r="C67">
-        <v>0.0246011153093514</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.008136038766218594</v>
+      </c>
+      <c r="D67">
+        <v>-0.02477917676286457</v>
+      </c>
+      <c r="E67">
+        <v>0.02837074205254727</v>
+      </c>
+      <c r="F67">
+        <v>-0.01135698452162739</v>
+      </c>
+      <c r="G67">
+        <v>-0.0005838924790757377</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.05546933293705254</v>
+        <v>-0.07042012633051031</v>
       </c>
       <c r="C68">
-        <v>0.04949306673716787</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.04824134674970065</v>
+      </c>
+      <c r="D68">
+        <v>0.2637640088760235</v>
+      </c>
+      <c r="E68">
+        <v>0.04818964088928299</v>
+      </c>
+      <c r="F68">
+        <v>0.01280566811647143</v>
+      </c>
+      <c r="G68">
+        <v>-0.00104145833148164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.04748680370908206</v>
+        <v>-0.05089646758312471</v>
       </c>
       <c r="C69">
-        <v>0.02672308723648427</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.01236898106246108</v>
+      </c>
+      <c r="D69">
+        <v>-0.03609779827655887</v>
+      </c>
+      <c r="E69">
+        <v>0.0158606467297502</v>
+      </c>
+      <c r="F69">
+        <v>0.005251406036621489</v>
+      </c>
+      <c r="G69">
+        <v>0.01054722596531249</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.003570557072627347</v>
+        <v>-0.0105447768525549</v>
       </c>
       <c r="C70">
-        <v>-0.001768751656365528</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.001103364362089546</v>
+      </c>
+      <c r="D70">
+        <v>0.00158866948260896</v>
+      </c>
+      <c r="E70">
+        <v>-0.00627511589963693</v>
+      </c>
+      <c r="F70">
+        <v>-0.008575405835261087</v>
+      </c>
+      <c r="G70">
+        <v>-0.0005026093404713218</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.05835170857409172</v>
+        <v>-0.0741988519304992</v>
       </c>
       <c r="C71">
-        <v>0.05038320746828234</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.0490882146869647</v>
+      </c>
+      <c r="D71">
+        <v>0.302840254239493</v>
+      </c>
+      <c r="E71">
+        <v>0.04724598545860324</v>
+      </c>
+      <c r="F71">
+        <v>0.02522783061147394</v>
+      </c>
+      <c r="G71">
+        <v>0.005898899155929099</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1295406336113739</v>
+        <v>-0.1499908097257212</v>
       </c>
       <c r="C72">
-        <v>0.07732082931179421</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.05114796775792314</v>
+      </c>
+      <c r="D72">
+        <v>-0.01012145110328779</v>
+      </c>
+      <c r="E72">
+        <v>-0.1058840846329009</v>
+      </c>
+      <c r="F72">
+        <v>-0.1393513286769697</v>
+      </c>
+      <c r="G72">
+        <v>-0.1234673729076276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.2435255967248615</v>
+        <v>-0.268882070214359</v>
       </c>
       <c r="C73">
-        <v>0.1446472607407823</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.09162756511520022</v>
+      </c>
+      <c r="D73">
+        <v>-0.06081055804293623</v>
+      </c>
+      <c r="E73">
+        <v>-0.1906480537031814</v>
+      </c>
+      <c r="F73">
+        <v>0.06926024076265436</v>
+      </c>
+      <c r="G73">
+        <v>0.1642817718808111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.07662163328291703</v>
+        <v>-0.08838716305608858</v>
       </c>
       <c r="C74">
-        <v>0.07944920928604858</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.06047449888261949</v>
+      </c>
+      <c r="D74">
+        <v>-0.03530595753387737</v>
+      </c>
+      <c r="E74">
+        <v>-0.001732059015412542</v>
+      </c>
+      <c r="F74">
+        <v>-0.0006031355732949496</v>
+      </c>
+      <c r="G74">
+        <v>0.03096160820867632</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.09770783235655982</v>
+        <v>-0.1086947742049685</v>
       </c>
       <c r="C75">
-        <v>0.07249526365766473</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.0436748172510563</v>
+      </c>
+      <c r="D75">
+        <v>-0.02659311700255108</v>
+      </c>
+      <c r="E75">
+        <v>0.0134894875874507</v>
+      </c>
+      <c r="F75">
+        <v>0.07906831950399629</v>
+      </c>
+      <c r="G75">
+        <v>0.01209780011133635</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1188183965123898</v>
+        <v>-0.1338114171735978</v>
       </c>
       <c r="C76">
-        <v>0.09766897896726266</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.06735738226913542</v>
+      </c>
+      <c r="D76">
+        <v>-0.0576898523139063</v>
+      </c>
+      <c r="E76">
+        <v>0.008686932014458143</v>
+      </c>
+      <c r="F76">
+        <v>0.07636686532849428</v>
+      </c>
+      <c r="G76">
+        <v>0.01942378825152491</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.09289730466260139</v>
+        <v>-0.1012475289000125</v>
       </c>
       <c r="C77">
-        <v>0.06607431313170566</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.03248250940513563</v>
+      </c>
+      <c r="D77">
+        <v>-0.04849543504705341</v>
+      </c>
+      <c r="E77">
+        <v>-0.07930227463691981</v>
+      </c>
+      <c r="F77">
+        <v>0.3007735777561357</v>
+      </c>
+      <c r="G77">
+        <v>-0.8802824797467402</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.08417277275436097</v>
+        <v>-0.09923311814800677</v>
       </c>
       <c r="C78">
-        <v>0.04459427845644908</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.02863430244108643</v>
+      </c>
+      <c r="D78">
+        <v>-0.07447374306077813</v>
+      </c>
+      <c r="E78">
+        <v>0.04220476811711499</v>
+      </c>
+      <c r="F78">
+        <v>-0.0104073776632793</v>
+      </c>
+      <c r="G78">
+        <v>-0.0251990488511777</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1347429714060502</v>
+        <v>-0.1512193204085528</v>
       </c>
       <c r="C79">
-        <v>0.100166233279697</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.06383232883491056</v>
+      </c>
+      <c r="D79">
+        <v>-0.02854813337015421</v>
+      </c>
+      <c r="E79">
+        <v>-0.01626716295114377</v>
+      </c>
+      <c r="F79">
+        <v>0.04370884200852725</v>
+      </c>
+      <c r="G79">
+        <v>0.02143715280164865</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04479880615205628</v>
+        <v>-0.04002100528161026</v>
       </c>
       <c r="C80">
-        <v>0.01753617212884077</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.005301188358281365</v>
+      </c>
+      <c r="D80">
+        <v>-0.02364927886175586</v>
+      </c>
+      <c r="E80">
+        <v>0.01490196220784745</v>
+      </c>
+      <c r="F80">
+        <v>-0.03231709518487259</v>
+      </c>
+      <c r="G80">
+        <v>0.0427933695817996</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1087929464629756</v>
+        <v>-0.1207310074865264</v>
       </c>
       <c r="C81">
-        <v>0.07966091201755862</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.05126670518637796</v>
+      </c>
+      <c r="D81">
+        <v>-0.03934536129259619</v>
+      </c>
+      <c r="E81">
+        <v>-0.002521264020213807</v>
+      </c>
+      <c r="F81">
+        <v>0.04514356595588558</v>
+      </c>
+      <c r="G81">
+        <v>0.05480564576704753</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1138181542514877</v>
+        <v>-0.1266010931750677</v>
       </c>
       <c r="C82">
-        <v>0.09442127177407972</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.06141439131847839</v>
+      </c>
+      <c r="D82">
+        <v>-0.040223766109507</v>
+      </c>
+      <c r="E82">
+        <v>-0.02423610293761206</v>
+      </c>
+      <c r="F82">
+        <v>0.06169633799093213</v>
+      </c>
+      <c r="G82">
+        <v>0.06318193444912568</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.07242066066035253</v>
+        <v>-0.07040564602865459</v>
       </c>
       <c r="C83">
-        <v>0.01705088864681853</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.003741583274607232</v>
+      </c>
+      <c r="D83">
+        <v>-0.0418612725084159</v>
+      </c>
+      <c r="E83">
+        <v>0.009688321741730151</v>
+      </c>
+      <c r="F83">
+        <v>-0.00520788485154558</v>
+      </c>
+      <c r="G83">
+        <v>0.06013580864031112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.02427131829240016</v>
+        <v>-0.03245176879927463</v>
       </c>
       <c r="C84">
-        <v>0.01909140383959582</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.0187800393941663</v>
+      </c>
+      <c r="D84">
+        <v>-0.01148120756164529</v>
+      </c>
+      <c r="E84">
+        <v>0.007705001499323472</v>
+      </c>
+      <c r="F84">
+        <v>-0.03701093267941689</v>
+      </c>
+      <c r="G84">
+        <v>0.03360154738060721</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1180315166176248</v>
+        <v>-0.1186578930461462</v>
       </c>
       <c r="C85">
-        <v>0.07902913553355975</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.04449046295917237</v>
+      </c>
+      <c r="D85">
+        <v>-0.03855565078339549</v>
+      </c>
+      <c r="E85">
+        <v>0.01191486886713735</v>
+      </c>
+      <c r="F85">
+        <v>0.09010730943138495</v>
+      </c>
+      <c r="G85">
+        <v>0.005766691527990064</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.04363073054687483</v>
+        <v>-0.04631250657335402</v>
       </c>
       <c r="C86">
-        <v>0.02354619532411406</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.01087659258147467</v>
+      </c>
+      <c r="D86">
+        <v>-0.01513488362016733</v>
+      </c>
+      <c r="E86">
+        <v>0.04611382092825275</v>
+      </c>
+      <c r="F86">
+        <v>0.0101192875255225</v>
+      </c>
+      <c r="G86">
+        <v>-0.004494146500386135</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.1111459522055144</v>
+        <v>-0.118791825096642</v>
       </c>
       <c r="C87">
-        <v>0.08019600560623846</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.04745580597105988</v>
+      </c>
+      <c r="D87">
+        <v>-0.07571041228689263</v>
+      </c>
+      <c r="E87">
+        <v>0.006054581627356209</v>
+      </c>
+      <c r="F87">
+        <v>0.0277433065258409</v>
+      </c>
+      <c r="G87">
+        <v>-0.09738356111099257</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.05306885290587912</v>
+        <v>-0.05682210736353499</v>
       </c>
       <c r="C88">
-        <v>0.04147842421945255</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.02545345897053532</v>
+      </c>
+      <c r="D88">
+        <v>-0.02585120514229148</v>
+      </c>
+      <c r="E88">
+        <v>0.02362729954727986</v>
+      </c>
+      <c r="F88">
+        <v>0.00752154539277645</v>
+      </c>
+      <c r="G88">
+        <v>-0.009412973228086706</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.07743401037130608</v>
+        <v>-0.1068515572120884</v>
       </c>
       <c r="C89">
-        <v>0.08321693990742798</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.07964933342496111</v>
+      </c>
+      <c r="D89">
+        <v>0.3230608859316847</v>
+      </c>
+      <c r="E89">
+        <v>0.09251341597465093</v>
+      </c>
+      <c r="F89">
+        <v>0.05421047772406409</v>
+      </c>
+      <c r="G89">
+        <v>0.008981183113756567</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.07327960173247976</v>
+        <v>-0.09402678836429711</v>
       </c>
       <c r="C90">
-        <v>0.07447020359506447</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.06940193049428951</v>
+      </c>
+      <c r="D90">
+        <v>0.3114179658271198</v>
+      </c>
+      <c r="E90">
+        <v>0.07999606661048458</v>
+      </c>
+      <c r="F90">
+        <v>-0.01918666574982755</v>
+      </c>
+      <c r="G90">
+        <v>0.02449667619780297</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.08129285441657307</v>
+        <v>-0.09037167142935172</v>
       </c>
       <c r="C91">
-        <v>0.06592582328794701</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.04342340579236929</v>
+      </c>
+      <c r="D91">
+        <v>-0.03003457308368961</v>
+      </c>
+      <c r="E91">
+        <v>0.004498794357185392</v>
+      </c>
+      <c r="F91">
+        <v>0.01806885453059614</v>
+      </c>
+      <c r="G91">
+        <v>0.03634090801640398</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.08634014698258277</v>
+        <v>-0.1059414131460444</v>
       </c>
       <c r="C92">
-        <v>0.06581995612063493</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.06203700769947466</v>
+      </c>
+      <c r="D92">
+        <v>0.3287206455374706</v>
+      </c>
+      <c r="E92">
+        <v>0.0328240270456212</v>
+      </c>
+      <c r="F92">
+        <v>0.03174330797968478</v>
+      </c>
+      <c r="G92">
+        <v>-0.02445157538680444</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.06378346256314069</v>
+        <v>-0.08643129561180202</v>
       </c>
       <c r="C93">
-        <v>0.06698329194165369</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.06529373186013533</v>
+      </c>
+      <c r="D93">
+        <v>0.299183079168053</v>
+      </c>
+      <c r="E93">
+        <v>0.04880152680221284</v>
+      </c>
+      <c r="F93">
+        <v>0.03769408116215946</v>
+      </c>
+      <c r="G93">
+        <v>-0.01771338300350372</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1272651163182317</v>
+        <v>-0.1296006243666452</v>
       </c>
       <c r="C94">
-        <v>0.08028037668941763</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.0404612337100601</v>
+      </c>
+      <c r="D94">
+        <v>-0.05601994646983736</v>
+      </c>
+      <c r="E94">
+        <v>-0.02675931118768647</v>
+      </c>
+      <c r="F94">
+        <v>0.05310852022389392</v>
+      </c>
+      <c r="G94">
+        <v>0.04207536361738648</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1148558132280399</v>
+        <v>-0.120291230206042</v>
       </c>
       <c r="C95">
-        <v>0.05439659269275831</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.02706210833177659</v>
+      </c>
+      <c r="D95">
+        <v>-0.05947863885615826</v>
+      </c>
+      <c r="E95">
+        <v>-0.0139821349323766</v>
+      </c>
+      <c r="F95">
+        <v>0.026173317889267</v>
+      </c>
+      <c r="G95">
+        <v>-0.006570486924403322</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2896,91 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1876973138472239</v>
+        <v>-0.2232254383829911</v>
       </c>
       <c r="C97">
-        <v>0.07470369702203576</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.04242942445393142</v>
+      </c>
+      <c r="D97">
+        <v>0.01447268364695315</v>
+      </c>
+      <c r="E97">
+        <v>-0.2278430942690335</v>
+      </c>
+      <c r="F97">
+        <v>-0.85975950968601</v>
+      </c>
+      <c r="G97">
+        <v>-0.235871395463774</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2373546078855979</v>
+        <v>-0.2577666138428295</v>
       </c>
       <c r="C98">
-        <v>0.1199043161082732</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.06234213874648382</v>
+      </c>
+      <c r="D98">
+        <v>-0.03526558028378657</v>
+      </c>
+      <c r="E98">
+        <v>-0.1477580374897696</v>
+      </c>
+      <c r="F98">
+        <v>-0.007353520956006927</v>
+      </c>
+      <c r="G98">
+        <v>0.2465878409143391</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.5566902641480819</v>
+        <v>-0.3670100575311606</v>
       </c>
       <c r="C99">
-        <v>-0.8212476306717322</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9200582105286608</v>
+      </c>
+      <c r="D99">
+        <v>0.07142272613809962</v>
+      </c>
+      <c r="E99">
+        <v>0.044846632847643</v>
+      </c>
+      <c r="F99">
+        <v>0.03781989096912277</v>
+      </c>
+      <c r="G99">
+        <v>0.003273634536595548</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2988,45 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.03708016586436091</v>
+        <v>-0.04228284176111619</v>
       </c>
       <c r="C101">
-        <v>0.03166468758940753</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02438505652509606</v>
+      </c>
+      <c r="D101">
+        <v>-0.01045852322808696</v>
+      </c>
+      <c r="E101">
+        <v>0.04519868389774075</v>
+      </c>
+      <c r="F101">
+        <v>0.01005121871335199</v>
+      </c>
+      <c r="G101">
+        <v>0.003535850137272558</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
